--- a/Liste.xlsx
+++ b/Liste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\image\produit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F76F7F70-1FE3-4F99-84F0-EE4618FEE64E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBE8E9E-50D2-470F-A9F3-FD53590670F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="15072" windowHeight="6000" xr2:uid="{EC60E992-D5E9-4898-A3A8-9074984D18FC}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{5519844F-BAE6-4DF6-B7F6-DAE75EC1DADF}"/>
   </bookViews>
   <sheets>
     <sheet name="LUD 2.0 - Par Chopin" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="297">
   <si>
     <t>Nom/arborescence</t>
   </si>
@@ -45,145 +45,886 @@
     <t>Chemin d'accès</t>
   </si>
   <si>
+    <t>[GOOD]</t>
+  </si>
+  <si>
+    <t>dossier</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\GOOD</t>
+  </si>
+  <si>
     <t>JPG</t>
   </si>
   <si>
-    <t>8108050204</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050204.jpg</t>
-  </si>
-  <si>
-    <t>8108050205</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050205.jpg</t>
-  </si>
-  <si>
-    <t>8108050209</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050209.jpg</t>
-  </si>
-  <si>
-    <t>8108050210</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050210.jpg</t>
-  </si>
-  <si>
-    <t>8108050213</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050213.jpg</t>
-  </si>
-  <si>
-    <t>8108050214</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050214.jpg</t>
-  </si>
-  <si>
-    <t>8108050215</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050215.jpg</t>
-  </si>
-  <si>
-    <t>8108050216</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050216.jpg</t>
-  </si>
-  <si>
-    <t>8108050219</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050219.jpg</t>
-  </si>
-  <si>
-    <t>8108050220</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050220.jpg</t>
-  </si>
-  <si>
-    <t>8108050221</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050221.jpg</t>
-  </si>
-  <si>
-    <t>8108050222</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050222.jpg</t>
-  </si>
-  <si>
-    <t>8108050223</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050223.jpg</t>
-  </si>
-  <si>
-    <t>8108050224</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050224.jpg</t>
-  </si>
-  <si>
-    <t>8108050225</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050225.jpg</t>
-  </si>
-  <si>
-    <t>8108050226</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050226.jpg</t>
-  </si>
-  <si>
-    <t>8108050227</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050227.jpg</t>
-  </si>
-  <si>
-    <t>8108050229</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050229.jpg</t>
-  </si>
-  <si>
-    <t>8108050231</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050231.jpg</t>
-  </si>
-  <si>
-    <t>8108050232</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050232.jpg</t>
-  </si>
-  <si>
-    <t>8108050233</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050233.jpg</t>
-  </si>
-  <si>
-    <t>8108050234</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050234.jpg</t>
-  </si>
-  <si>
-    <t>8108050235</t>
-  </si>
-  <si>
-    <t>C:\UwAmp\www\image\produit\8108050235.jpg</t>
+    <t>79146308</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79146308.jpg</t>
+  </si>
+  <si>
+    <t>79146331</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79146331.jpg</t>
+  </si>
+  <si>
+    <t>79146773</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79146773.jpg</t>
+  </si>
+  <si>
+    <t>79357198</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79357198.jpg</t>
+  </si>
+  <si>
+    <t>79364644</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79364644.jpg</t>
+  </si>
+  <si>
+    <t>79376910</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79376910.jpg</t>
+  </si>
+  <si>
+    <t>79376944</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79376944.jpg</t>
+  </si>
+  <si>
+    <t>79377041</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79377041.jpg</t>
+  </si>
+  <si>
+    <t>79380588</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79380588.jpg</t>
+  </si>
+  <si>
+    <t>79385364</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79385364.jpg</t>
+  </si>
+  <si>
+    <t>79385446</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79385446.jpg</t>
+  </si>
+  <si>
+    <t>79385581</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79385581.jpg</t>
+  </si>
+  <si>
+    <t>79390199</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79390199.jpg</t>
+  </si>
+  <si>
+    <t>79398653</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79398653.jpg</t>
+  </si>
+  <si>
+    <t>79399376</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79399376.jpg</t>
+  </si>
+  <si>
+    <t>79400239</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79400239.jpg</t>
+  </si>
+  <si>
+    <t>79400259</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79400259.jpg</t>
+  </si>
+  <si>
+    <t>79400263</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79400263.jpg</t>
+  </si>
+  <si>
+    <t>79406304</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79406304.jpg</t>
+  </si>
+  <si>
+    <t>79409808</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79409808.jpg</t>
+  </si>
+  <si>
+    <t>79410503</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79410503.jpg</t>
+  </si>
+  <si>
+    <t>79410507</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79410507.jpg</t>
+  </si>
+  <si>
+    <t>79411278</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79411278.jpg</t>
+  </si>
+  <si>
+    <t>79421274</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79421274.jpg</t>
+  </si>
+  <si>
+    <t>79426099</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79426099.jpg</t>
+  </si>
+  <si>
+    <t>79432242</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79432242.jpg</t>
+  </si>
+  <si>
+    <t>79432549</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79432549.jpg</t>
+  </si>
+  <si>
+    <t>79432612</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79432612.jpg</t>
+  </si>
+  <si>
+    <t>79434174</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79434174.jpg</t>
+  </si>
+  <si>
+    <t>79434202</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79434202.jpg</t>
+  </si>
+  <si>
+    <t>79434256</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79434256.jpg</t>
+  </si>
+  <si>
+    <t>79434386</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79434386.jpg</t>
+  </si>
+  <si>
+    <t>79434387</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79434387.jpg</t>
+  </si>
+  <si>
+    <t>79434427</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79434427.jpg</t>
+  </si>
+  <si>
+    <t>79434432</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79434432.jpg</t>
+  </si>
+  <si>
+    <t>79434761</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79434761.jpg</t>
+  </si>
+  <si>
+    <t>79434869</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79434869.jpg</t>
+  </si>
+  <si>
+    <t>79438187</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79438187.jpg</t>
+  </si>
+  <si>
+    <t>79439284</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79439284.jpg</t>
+  </si>
+  <si>
+    <t>79439298</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79439298.jpg</t>
+  </si>
+  <si>
+    <t>79439694</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79439694.jpg</t>
+  </si>
+  <si>
+    <t>79439977</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79439977.jpg</t>
+  </si>
+  <si>
+    <t>79441057</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79441057.jpg</t>
+  </si>
+  <si>
+    <t>79441121</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79441121.jpg</t>
+  </si>
+  <si>
+    <t>79441124</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79441124.jpg</t>
+  </si>
+  <si>
+    <t>79441724</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79441724.jpg</t>
+  </si>
+  <si>
+    <t>79441814</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79441814.jpg</t>
+  </si>
+  <si>
+    <t>79443323</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79443323.jpg</t>
+  </si>
+  <si>
+    <t>79443326</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79443326.jpg</t>
+  </si>
+  <si>
+    <t>79445184</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79445184.jpg</t>
+  </si>
+  <si>
+    <t>79445317</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\79445317.jpg</t>
+  </si>
+  <si>
+    <t>300026402</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\300026402.jpg</t>
+  </si>
+  <si>
+    <t>300030855</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\300030855.jpg</t>
+  </si>
+  <si>
+    <t>400000857</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400000857.jpg</t>
+  </si>
+  <si>
+    <t>400002215</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400002215.jpg</t>
+  </si>
+  <si>
+    <t>400002581</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400002581.jpg</t>
+  </si>
+  <si>
+    <t>400002871</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400002871.jpg</t>
+  </si>
+  <si>
+    <t>400003066</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400003066.jpg</t>
+  </si>
+  <si>
+    <t>400003128</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400003128.jpg</t>
+  </si>
+  <si>
+    <t>400003130</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400003130.jpg</t>
+  </si>
+  <si>
+    <t>400003133</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400003133.jpg</t>
+  </si>
+  <si>
+    <t>400003138</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400003138.jpg</t>
+  </si>
+  <si>
+    <t>400003142</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400003142.jpg</t>
+  </si>
+  <si>
+    <t>400003191</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400003191.jpg</t>
+  </si>
+  <si>
+    <t>400003193</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400003193.jpg</t>
+  </si>
+  <si>
+    <t>400003891</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400003891.jpg</t>
+  </si>
+  <si>
+    <t>400004298</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400004298.jpg</t>
+  </si>
+  <si>
+    <t>400004575</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400004575.jpg</t>
+  </si>
+  <si>
+    <t>400005072</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005072.jpg</t>
+  </si>
+  <si>
+    <t>400005075</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005075.jpg</t>
+  </si>
+  <si>
+    <t>400005077</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005077.jpg</t>
+  </si>
+  <si>
+    <t>400005078</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005078.jpg</t>
+  </si>
+  <si>
+    <t>400005080</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005080.jpg</t>
+  </si>
+  <si>
+    <t>400005081</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005081.jpg</t>
+  </si>
+  <si>
+    <t>400005086</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005086.jpg</t>
+  </si>
+  <si>
+    <t>400005088</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005088.jpg</t>
+  </si>
+  <si>
+    <t>400005089</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005089.jpg</t>
+  </si>
+  <si>
+    <t>400005096</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005096.jpg</t>
+  </si>
+  <si>
+    <t>400005101</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005101.jpg</t>
+  </si>
+  <si>
+    <t>400005105</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005105.jpg</t>
+  </si>
+  <si>
+    <t>400005106</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005106.jpg</t>
+  </si>
+  <si>
+    <t>400005107</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005107.jpg</t>
+  </si>
+  <si>
+    <t>400005108</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005108.jpg</t>
+  </si>
+  <si>
+    <t>400005118</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005118.jpg</t>
+  </si>
+  <si>
+    <t>400005122</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005122.jpg</t>
+  </si>
+  <si>
+    <t>400005124</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005124.jpg</t>
+  </si>
+  <si>
+    <t>400005165</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005165.jpg</t>
+  </si>
+  <si>
+    <t>400005360</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005360.jpg</t>
+  </si>
+  <si>
+    <t>400005363</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005363.jpg</t>
+  </si>
+  <si>
+    <t>400005367</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005367.jpg</t>
+  </si>
+  <si>
+    <t>400005538</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005538.jpg</t>
+  </si>
+  <si>
+    <t>400005647</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400005647.jpg</t>
+  </si>
+  <si>
+    <t>400007081</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007081.jpg</t>
+  </si>
+  <si>
+    <t>400007439</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007439.jpg</t>
+  </si>
+  <si>
+    <t>400007445</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007445.jpg</t>
+  </si>
+  <si>
+    <t>400007871</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007871.jpg</t>
+  </si>
+  <si>
+    <t>400007897</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007897.jpg</t>
+  </si>
+  <si>
+    <t>400007898</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007898.jpg</t>
+  </si>
+  <si>
+    <t>400007899</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007899.jpg</t>
+  </si>
+  <si>
+    <t>400007900</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007900.jpg</t>
+  </si>
+  <si>
+    <t>400007901</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007901.jpg</t>
+  </si>
+  <si>
+    <t>400007920</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007920.jpg</t>
+  </si>
+  <si>
+    <t>400007921</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007921.jpg</t>
+  </si>
+  <si>
+    <t>400007931</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007931.jpg</t>
+  </si>
+  <si>
+    <t>400007932</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007932.jpg</t>
+  </si>
+  <si>
+    <t>400007941</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400007941.jpg</t>
+  </si>
+  <si>
+    <t>400008098</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400008098.jpg</t>
+  </si>
+  <si>
+    <t>400008099</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400008099.jpg</t>
+  </si>
+  <si>
+    <t>400008640</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400008640.jpg</t>
+  </si>
+  <si>
+    <t>400008813</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400008813.jpg</t>
+  </si>
+  <si>
+    <t>400008922</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400008922.jpg</t>
+  </si>
+  <si>
+    <t>400009223</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400009223.jpg</t>
+  </si>
+  <si>
+    <t>400009582</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400009582.jpg</t>
+  </si>
+  <si>
+    <t>400009583</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400009583.jpg</t>
+  </si>
+  <si>
+    <t>400009733</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400009733.jpg</t>
+  </si>
+  <si>
+    <t>400010530</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400010530.jpg</t>
+  </si>
+  <si>
+    <t>400010634</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400010634.jpg</t>
+  </si>
+  <si>
+    <t>400010816</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400010816.jpg</t>
+  </si>
+  <si>
+    <t>400011168</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400011168.jpg</t>
+  </si>
+  <si>
+    <t>400011219</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400011219.jpg</t>
+  </si>
+  <si>
+    <t>400011409</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400011409.jpg</t>
+  </si>
+  <si>
+    <t>400011411</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400011411.jpg</t>
+  </si>
+  <si>
+    <t>400012270</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400012270.jpg</t>
+  </si>
+  <si>
+    <t>400012384</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400012384.jpg</t>
+  </si>
+  <si>
+    <t>400012385</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400012385.jpg</t>
+  </si>
+  <si>
+    <t>400013279</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400013279.jpg</t>
+  </si>
+  <si>
+    <t>400014153</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\400014153.jpg</t>
+  </si>
+  <si>
+    <t>405110132</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405110132.jpg</t>
+  </si>
+  <si>
+    <t>405110142</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405110142.jpg</t>
+  </si>
+  <si>
+    <t>405110530</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405110530.jpg</t>
+  </si>
+  <si>
+    <t>405110585</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405110585.jpg</t>
+  </si>
+  <si>
+    <t>405112574</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405112574.jpg</t>
+  </si>
+  <si>
+    <t>405112777</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405112777.jpg</t>
+  </si>
+  <si>
+    <t>405113315</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405113315.jpg</t>
+  </si>
+  <si>
+    <t>405113319</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405113319.jpg</t>
+  </si>
+  <si>
+    <t>405115375</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405115375.jpg</t>
+  </si>
+  <si>
+    <t>405115376</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405115376.jpg</t>
+  </si>
+  <si>
+    <t>405115440</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405115440.jpg</t>
+  </si>
+  <si>
+    <t>405115506</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405115506.jpg</t>
+  </si>
+  <si>
+    <t>405115628</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405115628.jpg</t>
+  </si>
+  <si>
+    <t>405116664</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405116664.jpg</t>
+  </si>
+  <si>
+    <t>405116666</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405116666.jpg</t>
+  </si>
+  <si>
+    <t>405116672</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405116672.jpg</t>
+  </si>
+  <si>
+    <t>405116940</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405116940.jpg</t>
+  </si>
+  <si>
+    <t>405116947</t>
+  </si>
+  <si>
+    <t>C:\UwAmp\www\image\IMAGE\405116947.jpg</t>
   </si>
 </sst>
 </file>
@@ -545,8 +1286,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF48282-BC2D-41F1-91C7-6408B70CD36B}">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B048E3-2DCF-45EE-9FAC-55E4B252BC30}">
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,10 +1311,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -581,244 +1322,1597 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
